--- a/biology/Zoologie/Aspidoscelis_deppii/Aspidoscelis_deppii.xlsx
+++ b/biology/Zoologie/Aspidoscelis_deppii/Aspidoscelis_deppii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aspidoscelis deppii est une espèce de sauriens de la famille des Teiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aspidoscelis deppii est une espèce de sauriens de la famille des Teiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre :
 au Mexique dans les États du Michoacán, du Yucatán, du Guerrero, d'Oaxaca et du Chiapas ;
 au Guatemala ;
 au Salvador ;
@@ -549,9 +563,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (16 août 2015)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (16 août 2015) :
 Aspidoscelis deppii infernalis (Duellman &amp; Wellman, 1960)
 Aspidoscelis deppii deppii (Wiegmann, 1834)
 Aspidoscelis deppii schizophorus (Smith &amp; Brandon, 1968)</t>
@@ -582,9 +598,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Ferdinand Deppe[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Ferdinand Deppe.
 </t>
         </is>
       </c>
@@ -613,7 +631,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Duellman &amp; Wellman, 1960 : A Systematic Study of the Lizards of the Deppel Group:(Genus Cnemidophorus) in Mexico and Guatemala. Miscellaneous publications, Museum of Zoology, University of Michigan, no 111, p. 1-81 (texte intégral).
 Smith &amp; Brandon, 1968 : Data Nova Herpetologica Mexicana. Transactions of the Kansas Academy of Science, vol. 71, no 1, p. 49-61.
